--- a/data extraction /extraction /raw data /saxon2017/saxon2017.xlsx
+++ b/data extraction /extraction /raw data /saxon2017/saxon2017.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /raw data /saxon2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A266FDC1-4F55-5543-A1F3-81C8C40CE5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B64C01-3DF2-954F-8091-896B8AA04759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{E4B80340-CCAC-674B-A23D-C73671521886}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{E4B80340-CCAC-674B-A23D-C73671521886}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="21">
   <si>
     <t xml:space="preserve">median </t>
   </si>
@@ -83,6 +84,12 @@
   </si>
   <si>
     <t>wing centroid</t>
+  </si>
+  <si>
+    <t>avg_constant</t>
+  </si>
+  <si>
+    <t>avg_constant_sd</t>
   </si>
 </sst>
 </file>
@@ -98,12 +105,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419EA667-74E9-D342-B51C-124BAFC1D38B}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,4 +1890,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BE72EE-6063-224F-8D55-40AE238BE19C}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2242.07650273224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>64.764217769681494</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2006.0109289617401</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>74.478850435133509</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1936.0655737704899</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>84.193483100592587</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <f>AVERAGE(A2,A4)</f>
+        <v>2089.0710382513648</v>
+      </c>
+      <c r="C7" s="3">
+        <f>AVERAGE(E2,E4)</f>
+        <v>74.478850435137048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>